--- a/output/ValueSet-Observationcode.xlsx
+++ b/output/ValueSet-Observationcode.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Observationcode.xlsx
+++ b/output/ValueSet-Observationcode.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from anc-custom-codes" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Extended Codes C" r:id="rId4" sheetId="2"/>
     <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
     <sheet name="Include from Terminology Kemk" r:id="rId6" sheetId="4"/>
     <sheet name="Include from Terminology Kemk 2" r:id="rId7" sheetId="5"/>
@@ -63,19 +63,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>

--- a/output/ValueSet-Observationcode.xlsx
+++ b/output/ValueSet-Observationcode.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
